--- a/计划及工作安排.xlsx
+++ b/计划及工作安排.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuting/Documents/JavaWorkspace/yatspj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88954678-4F24-4E48-B930-6186E545605C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52580C8-94EA-D744-9F9D-841902AC1340}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16420" xr2:uid="{0B453E25-C4B8-CA41-852D-649AE5DEEA70}"/>
+    <workbookView xWindow="1680" yWindow="1060" windowWidth="28240" windowHeight="16420" xr2:uid="{0B453E25-C4B8-CA41-852D-649AE5DEEA70}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,29 @@
   </si>
   <si>
     <t>_xDF1F_🌟🌟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yzevaluate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组报表导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了按二级指标汇总各个学校的分数外，还需增加专家组员打分，汇总总成绩，组指标平均分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🌟🌟🌟🌟🌟</t>
+  </si>
+  <si>
+    <t>Deadline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.9.16 24:00:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -185,11 +208,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -505,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C62B9AB-8482-8049-9F6F-633ADFA4157C}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -517,10 +540,11 @@
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
     <col min="3" max="3" width="40.5" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="36" customHeight="1">
+    <row r="1" spans="1:8" ht="36" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -534,17 +558,20 @@
         <v>8</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="68">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8" ht="68">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -556,28 +583,52 @@
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="28" customHeight="1">
-      <c r="A3" s="4"/>
+    <row r="3" spans="1:8" ht="28" customHeight="1">
+      <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="51">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/计划及工作安排.xlsx
+++ b/计划及工作安排.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuting/Documents/JavaWorkspace/yatspj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52580C8-94EA-D744-9F9D-841902AC1340}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59F67C9-CCB8-6D45-91B3-512EB09012D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="1060" windowWidth="28240" windowHeight="16420" xr2:uid="{0B453E25-C4B8-CA41-852D-649AE5DEEA70}"/>
+    <workbookView xWindow="560" yWindow="460" windowWidth="28240" windowHeight="16420" xr2:uid="{0B453E25-C4B8-CA41-852D-649AE5DEEA70}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="eduevaluate" sheetId="1" r:id="rId1"/>
+    <sheet name="yzevaluate" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,11 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
-  <si>
-    <t>系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>功能模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +48,6 @@
   </si>
   <si>
     <t>完成人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eduevaluate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -98,10 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yzevaluate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分组报表导出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,6 +108,24 @@
   </si>
   <si>
     <t>2019.9.16 24:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>github上为报表专家科室分类；阿里云服务器为上一版本，即指标不作科室和专家的区分；目前该功能暂未使用，预留给评价中心季老师生成总表使用（不需要区分科室和专家）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>县报告中增加指标得分报告（需根据模版自动生成）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、将报告模版导入到monitor_index_report表中
+2、在评估记录中页面添加生成指标报告功能，即修改evaluate_special的suggestion字段（开发人员使用）
+3、导入得分表的时候调用2的功能，生成指标报告文字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -166,7 +174,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -189,13 +197,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -211,8 +230,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -528,20 +553,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C62B9AB-8482-8049-9F6F-633ADFA4157C}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.5" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.5" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="36" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="68">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="28" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="119">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="7">
+        <v>43735</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDC0589F-1574-DD48-BC61-25633B0D88B6}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.5" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="8" max="8" width="53.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1">
@@ -552,88 +676,60 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
+      <c r="H1" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="68">
-      <c r="A2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
+    <row r="2" spans="1:8" ht="51">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="28" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="51">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="H2" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD0E1E4-F260-824F-AE7B-24BF2AA06DD9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
